--- a/agents.xlsx
+++ b/agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus.forsen\Desktop\new project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B835FF28-6251-4FF0-AFAC-035A88C74401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0D2C8A-F4B5-4683-BE32-F3940DB24434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39090" yWindow="1635" windowWidth="11475" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENT_LIST" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="AgentCode" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGENT_LIST!$C$1:$C$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGENT_LIST!$C$1:$C$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AgentCode!$A$1:$C$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="540">
   <si>
     <t>Anna Wolf</t>
   </si>
@@ -1332,9 +1332,6 @@
     <t>JENNIFER JAMES</t>
   </si>
   <si>
-    <t>EDVANIA SANTIAGO</t>
-  </si>
-  <si>
     <t>RAFAELA PEREIRA</t>
   </si>
   <si>
@@ -1344,9 +1341,6 @@
     <t>STELLA JEAN</t>
   </si>
   <si>
-    <t>MARTIN LEFEVRE</t>
-  </si>
-  <si>
     <t>CHRIS PIERRE</t>
   </si>
   <si>
@@ -1401,9 +1395,6 @@
     <t>MERLY VASQUEZ</t>
   </si>
   <si>
-    <t>AMBER ROY</t>
-  </si>
-  <si>
     <t>LAURA MARTINEZ</t>
   </si>
   <si>
@@ -1416,9 +1407,6 @@
     <t>DAVID NOHA</t>
   </si>
   <si>
-    <t>ARJUN PANDEY</t>
-  </si>
-  <si>
     <t>CAROLINA CASTILLO</t>
   </si>
   <si>
@@ -1428,15 +1416,6 @@
     <t>BARKHA GUPTA</t>
   </si>
   <si>
-    <t>KARAN KUMAR</t>
-  </si>
-  <si>
-    <t>BERRY GILMOUR</t>
-  </si>
-  <si>
-    <t>CHRISTOPHER SAINT</t>
-  </si>
-  <si>
     <t>JAYDEN MACHIAVEL</t>
   </si>
   <si>
@@ -1446,123 +1425,42 @@
     <t>VIVAN KUMAR</t>
   </si>
   <si>
-    <t>LINA COOPER</t>
-  </si>
-  <si>
     <t>LARISA FRANCO</t>
   </si>
   <si>
-    <t>DIANNA MANEVAL</t>
-  </si>
-  <si>
-    <t>TOM BRADY</t>
-  </si>
-  <si>
-    <t>STEVEN SILVER</t>
-  </si>
-  <si>
-    <t>PERCY ALFRED</t>
-  </si>
-  <si>
-    <t>EMMA STORM</t>
-  </si>
-  <si>
     <t>JOSE LOPEZ</t>
   </si>
   <si>
     <t>SAMEER SINGH</t>
   </si>
   <si>
-    <t>ROBERT ARNAUD</t>
-  </si>
-  <si>
     <t>ARMAN SINGH</t>
   </si>
   <si>
-    <t>PHILIPP JOHNSON</t>
-  </si>
-  <si>
-    <t>JAMES HERNANDES</t>
-  </si>
-  <si>
-    <t>DINESH YADAV</t>
-  </si>
-  <si>
-    <t>FILIMENA MATO</t>
-  </si>
-  <si>
     <t>ADEM ABROL</t>
   </si>
   <si>
-    <t>NITIN NANDA</t>
-  </si>
-  <si>
-    <t>GAURAV CHOUDHARY</t>
-  </si>
-  <si>
-    <t>MOHIT MEHTA</t>
-  </si>
-  <si>
     <t>ALFRED NICOLAS</t>
   </si>
   <si>
-    <t>HERVE LEBLANC</t>
-  </si>
-  <si>
-    <t>ANUV RAO</t>
-  </si>
-  <si>
-    <t>RISHAB RAJPUT</t>
-  </si>
-  <si>
-    <t>GEET VERMA</t>
-  </si>
-  <si>
     <t>YUNGI LEE</t>
   </si>
   <si>
-    <t>CLARKE GREEN</t>
-  </si>
-  <si>
     <t>MATILDE GUTIERREZ</t>
   </si>
   <si>
-    <t>CRISTIAN CORTEZ</t>
-  </si>
-  <si>
-    <t>EMILIO SANCHEZ</t>
-  </si>
-  <si>
     <t>ELIAS MEJIA</t>
   </si>
   <si>
-    <t>ARI KO</t>
-  </si>
-  <si>
     <t>ALEX AKA</t>
   </si>
   <si>
-    <t>ELLY WATSON</t>
-  </si>
-  <si>
-    <t>EDSON PASCOAL</t>
-  </si>
-  <si>
-    <t>MISA WANDER</t>
-  </si>
-  <si>
     <t>MAHI SHARMA</t>
   </si>
   <si>
-    <t>RIA SHARMA</t>
-  </si>
-  <si>
     <t>ANDREA BERNARD</t>
   </si>
   <si>
-    <t>YUNA KANG</t>
-  </si>
-  <si>
     <t>ADRIANA DOS SANTOS</t>
   </si>
   <si>
@@ -1581,9 +1479,6 @@
     <t>Aarav Singh</t>
   </si>
   <si>
-    <t>Aliza Lalwani</t>
-  </si>
-  <si>
     <t>Sagar Makar</t>
   </si>
   <si>
@@ -1602,9 +1497,6 @@
     <t>Ali Shah</t>
   </si>
   <si>
-    <t>Sidharth Bhat</t>
-  </si>
-  <si>
     <t>Ajay Team</t>
   </si>
   <si>
@@ -1665,9 +1557,6 @@
     <t>AKA Team</t>
   </si>
   <si>
-    <t>Mason Brown</t>
-  </si>
-  <si>
     <t>Nicola Morel</t>
   </si>
   <si>
@@ -1698,9 +1587,6 @@
     <t>Daniel Suarez</t>
   </si>
   <si>
-    <t>Rodrigo Cervantes</t>
-  </si>
-  <si>
     <t>Pedro Silva</t>
   </si>
   <si>
@@ -1716,18 +1602,6 @@
     <t>SOPHIA MONTCLAIR</t>
   </si>
   <si>
-    <t>LUCY GAUTHIER</t>
-  </si>
-  <si>
-    <t>LEA MARTEAU</t>
-  </si>
-  <si>
-    <t>YASH DESAI</t>
-  </si>
-  <si>
-    <t>RUMI KHAN</t>
-  </si>
-  <si>
     <t>MARILIA PIETERSON</t>
   </si>
   <si>
@@ -1761,10 +1635,19 @@
     <t>Team Sameer</t>
   </si>
   <si>
-    <t>Team Elly</t>
-  </si>
-  <si>
     <t>Team Larisa</t>
+  </si>
+  <si>
+    <t>Roland Davis</t>
+  </si>
+  <si>
+    <t>Sidhart Bhat</t>
+  </si>
+  <si>
+    <t>JAMES HERNANDEz</t>
+  </si>
+  <si>
+    <t>Mason Brown's</t>
   </si>
 </sst>
 </file>
@@ -2996,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF2412F-3AE1-406B-A3F5-1F2FB96EA374}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3030,10 +2913,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="D2" s="33">
         <v>0</v>
@@ -3044,10 +2927,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="D3" s="33">
         <v>0</v>
@@ -3058,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>434</v>
@@ -3067,15 +2950,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="D5" s="33">
         <v>0</v>
@@ -3086,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>459</v>
@@ -3095,160 +2978,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6">
       <c r="A7" s="33">
         <v>1</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="D7" s="33">
         <v>0</v>
       </c>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="33">
         <v>1</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>566</v>
+        <v>432</v>
       </c>
       <c r="D8" s="33">
         <v>0</v>
       </c>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="33">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D9" s="33">
         <v>0</v>
       </c>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="33">
         <v>1</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="D10" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="33">
         <v>1</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>461</v>
+        <v>538</v>
       </c>
       <c r="D11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="33">
         <v>1</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="D12" s="33">
         <v>0</v>
       </c>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="33">
         <v>1</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="D13" s="33">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="33">
         <v>1</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="D14" s="33">
         <v>0</v>
       </c>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="33">
         <v>1</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="D15" s="33">
         <v>0</v>
       </c>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="33">
         <v>1</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="D16" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4">
       <c r="A17" s="33">
         <v>1</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="D17" s="33">
         <v>0</v>
@@ -3259,13 +3141,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="D18" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3273,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D19" s="33">
         <v>0</v>
@@ -3287,13 +3169,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>498</v>
+        <v>250</v>
       </c>
       <c r="D20" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3301,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D21" s="33">
         <v>0</v>
@@ -3315,10 +3197,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D22" s="33">
         <v>0</v>
@@ -3329,10 +3211,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>567</v>
+        <v>431</v>
       </c>
       <c r="D23" s="33">
         <v>0</v>
@@ -3343,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>573</v>
+        <v>531</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="D24" s="33">
         <v>0</v>
@@ -3357,10 +3239,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>573</v>
+        <v>531</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="D25" s="33">
         <v>0</v>
@@ -3371,13 +3253,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="D26" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3385,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="D27" s="33">
         <v>0</v>
@@ -3399,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D28" s="33">
         <v>0</v>
@@ -3413,13 +3295,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D29" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3427,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="D30" s="33">
         <v>0</v>
@@ -3441,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>428</v>
+        <v>523</v>
       </c>
       <c r="D31" s="33">
         <v>0</v>
@@ -3455,10 +3337,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D32" s="33">
         <v>0</v>
@@ -3469,10 +3351,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="D33" s="33">
         <v>0</v>
@@ -3483,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>481</v>
+        <v>132</v>
       </c>
       <c r="D34" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3497,10 +3379,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
       <c r="D35" s="33">
         <v>0</v>
@@ -3511,10 +3393,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="D36" s="33">
         <v>0</v>
@@ -3525,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="D37" s="33">
         <v>0</v>
@@ -3539,13 +3421,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="D38" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3553,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="D39" s="33">
         <v>0</v>
@@ -3567,10 +3449,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="D40" s="33">
         <v>0</v>
@@ -3581,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>561</v>
+        <v>433</v>
       </c>
       <c r="D41" s="33">
         <v>0</v>
@@ -3595,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D42" s="33">
         <v>0</v>
@@ -3609,10 +3491,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D43" s="33">
         <v>0</v>
@@ -3623,13 +3505,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>562</v>
+        <v>444</v>
       </c>
       <c r="D44" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3637,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>563</v>
+        <v>446</v>
       </c>
       <c r="D45" s="33">
         <v>0</v>
@@ -3651,10 +3533,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="D46" s="33">
         <v>0</v>
@@ -3665,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="D47" s="33">
         <v>0</v>
@@ -3679,10 +3561,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="D48" s="33">
         <v>0</v>
@@ -3693,10 +3575,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="D49" s="33">
         <v>0</v>
@@ -3707,10 +3589,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="D50" s="33">
         <v>0</v>
@@ -3721,13 +3603,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>132</v>
+        <v>468</v>
       </c>
       <c r="D51" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3735,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="D52" s="33">
         <v>0</v>
@@ -3749,13 +3631,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="D53" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3763,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D54" s="33">
         <v>0</v>
@@ -3777,10 +3659,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>571</v>
+        <v>528</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D55" s="33">
         <v>0</v>
@@ -3791,10 +3673,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D56" s="33">
         <v>0</v>
@@ -3805,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D57" s="33">
         <v>0</v>
@@ -3819,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="D58" s="33">
         <v>0</v>
@@ -3833,13 +3715,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D59" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3847,10 +3729,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="D60" s="33">
         <v>0</v>
@@ -3861,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="D61" s="33">
         <v>0</v>
@@ -3872,13 +3754,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>574</v>
+        <v>481</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D62" s="33">
         <v>0</v>
@@ -3886,27 +3768,27 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>574</v>
+        <v>481</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="D63" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>574</v>
+        <v>481</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="D64" s="33">
         <v>0</v>
@@ -3914,13 +3796,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>574</v>
+        <v>481</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="D65" s="33">
         <v>0</v>
@@ -3928,13 +3810,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>574</v>
+        <v>481</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="D66" s="33">
         <v>0</v>
@@ -3942,27 +3824,27 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>574</v>
+        <v>481</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="D67" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>574</v>
+        <v>481</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="D68" s="33">
         <v>0</v>
@@ -3970,13 +3852,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>574</v>
+        <v>481</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>441</v>
+        <v>537</v>
       </c>
       <c r="D69" s="33">
         <v>0</v>
@@ -3984,13 +3866,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>574</v>
+        <v>489</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>564</v>
+        <v>491</v>
       </c>
       <c r="D70" s="33">
         <v>0</v>
@@ -3998,13 +3880,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>574</v>
+        <v>489</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>568</v>
+        <v>495</v>
       </c>
       <c r="D71" s="33">
         <v>0</v>
@@ -4012,27 +3894,27 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>574</v>
+        <v>489</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>569</v>
+        <v>490</v>
       </c>
       <c r="D72" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>574</v>
+        <v>489</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>575</v>
+        <v>494</v>
       </c>
       <c r="D73" s="33">
         <v>0</v>
@@ -4040,13 +3922,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>576</v>
+        <v>489</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D74" s="33">
         <v>0</v>
@@ -4054,13 +3936,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>576</v>
+        <v>489</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D75" s="33">
         <v>0</v>
@@ -4068,13 +3950,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>576</v>
+        <v>489</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D76" s="33">
         <v>0</v>
@@ -4082,13 +3964,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>576</v>
+        <v>489</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D77" s="33">
         <v>0</v>
@@ -4096,13 +3978,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>576</v>
+        <v>489</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D78" s="33">
         <v>0</v>
@@ -4110,13 +3992,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>490</v>
+        <v>230</v>
       </c>
       <c r="D79" s="33">
         <v>0</v>
@@ -4124,13 +4006,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="D80" s="33">
         <v>0</v>
@@ -4138,13 +4020,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D81" s="33">
         <v>0</v>
@@ -4152,13 +4034,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D82" s="33">
         <v>0</v>
@@ -4166,27 +4048,27 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="D83" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="D84" s="33">
         <v>0</v>
@@ -4194,13 +4076,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>576</v>
+        <v>499</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="D85" s="33">
         <v>0</v>
@@ -4208,13 +4090,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="D86" s="33">
         <v>0</v>
@@ -4222,13 +4104,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D87" s="33">
         <v>0</v>
@@ -4236,13 +4118,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="D88" s="33">
         <v>0</v>
@@ -4250,13 +4132,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="D89" s="33">
         <v>0</v>
@@ -4264,13 +4146,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="D90" s="33">
         <v>0</v>
@@ -4278,41 +4160,41 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="D91" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="D92" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D93" s="33">
         <v>0</v>
@@ -4320,13 +4202,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>570</v>
+        <v>479</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="D94" s="33">
         <v>0</v>
@@ -4337,10 +4219,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D95" s="33">
         <v>0</v>
@@ -4351,13 +4233,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D96" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4365,13 +4247,13 @@
         <v>2</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D97" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4379,10 +4261,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="C98" s="33" t="s">
         <v>515</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>517</v>
       </c>
       <c r="D98" s="33">
         <v>0</v>
@@ -4393,13 +4275,13 @@
         <v>2</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D99" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4407,10 +4289,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D100" s="33">
         <v>0</v>
@@ -4421,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>518</v>
@@ -4435,10 +4317,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D102" s="33">
         <v>0</v>
@@ -4449,550 +4331,18 @@
         <v>2</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="D103" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="33">
-        <v>2</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="D104" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="33">
-        <v>2</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="D105" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="33">
-        <v>2</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="D106" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="33">
-        <v>2</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="D107" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="33">
-        <v>2</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>533</v>
-      </c>
-      <c r="D108" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="33">
-        <v>2</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="D109" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="33">
-        <v>2</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>534</v>
-      </c>
-      <c r="D110" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="33">
-        <v>2</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="D111" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="33">
-        <v>2</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="D112" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="33">
-        <v>2</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="D113" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="33">
-        <v>2</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C114" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="D114" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="33">
-        <v>2</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="D115" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="33">
-        <v>2</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="D116" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="33">
-        <v>2</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="D117" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="33">
-        <v>2</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="D118" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="33">
-        <v>2</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="D119" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="33">
-        <v>2</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="D120" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="33">
-        <v>2</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="D121" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="33">
-        <v>2</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="D122" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="33">
-        <v>2</v>
-      </c>
-      <c r="B123" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="D123" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="33">
-        <v>2</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="D124" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="33">
-        <v>2</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="D125" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="33">
-        <v>2</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="D126" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="33">
-        <v>2</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="D127" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="33">
-        <v>2</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="D128" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="33">
-        <v>2</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="D129" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="33">
-        <v>2</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="D130" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="33">
-        <v>2</v>
-      </c>
-      <c r="B131" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="D131" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="33">
-        <v>2</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="D132" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="33">
-        <v>2</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="D133" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="33">
-        <v>2</v>
-      </c>
-      <c r="B134" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>558</v>
-      </c>
-      <c r="D134" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="33">
-        <v>2</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>557</v>
-      </c>
-      <c r="D135" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="33">
-        <v>2</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="D136" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="33">
-        <v>2</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="D137" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="33">
-        <v>2</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="D138" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="33">
-        <v>2</v>
-      </c>
-      <c r="B139" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>555</v>
-      </c>
-      <c r="D139" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="33">
-        <v>2</v>
-      </c>
-      <c r="B140" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="D140" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="33">
-        <v>2</v>
-      </c>
-      <c r="B141" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="D141" s="33">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D141">
-    <sortCondition ref="A1:A141"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D103">
+    <sortCondition ref="A1:A103"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/agents.xlsx
+++ b/agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus.forsen\Desktop\new project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0D2C8A-F4B5-4683-BE32-F3940DB24434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DB7569-C11F-43E2-934D-44F8E900EBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31875" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENT_LIST" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="AgentCode" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGENT_LIST!$C$1:$C$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGENT_LIST!$B$1:$B$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AgentCode!$A$1:$C$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="524">
   <si>
     <t>Anna Wolf</t>
   </si>
@@ -1308,9 +1308,6 @@
     <t>AMY PETERSON</t>
   </si>
   <si>
-    <t>ANNA WOLF</t>
-  </si>
-  <si>
     <t>KEVIN LEBLOND</t>
   </si>
   <si>
@@ -1419,9 +1416,6 @@
     <t>JAYDEN MACHIAVEL</t>
   </si>
   <si>
-    <t>GINA PARK</t>
-  </si>
-  <si>
     <t>VIVAN KUMAR</t>
   </si>
   <si>
@@ -1443,9 +1437,6 @@
     <t>ALFRED NICOLAS</t>
   </si>
   <si>
-    <t>YUNGI LEE</t>
-  </si>
-  <si>
     <t>MATILDE GUTIERREZ</t>
   </si>
   <si>
@@ -1467,12 +1458,6 @@
     <t>CHRISTAN JAMES</t>
   </si>
   <si>
-    <t>Korean Team</t>
-  </si>
-  <si>
-    <t>Japan Team</t>
-  </si>
-  <si>
     <t>Aarav Team</t>
   </si>
   <si>
@@ -1509,9 +1494,6 @@
     <t>Jasprit Singh</t>
   </si>
   <si>
-    <t>Nishant Joshi</t>
-  </si>
-  <si>
     <t>Harsh Sehgal</t>
   </si>
   <si>
@@ -1521,63 +1503,27 @@
     <t>Rohit Singh</t>
   </si>
   <si>
-    <t>Ishaan Anand</t>
-  </si>
-  <si>
     <t>Kabir Khan</t>
   </si>
   <si>
-    <t>French Maxime</t>
-  </si>
-  <si>
     <t>Maxime Hulot</t>
   </si>
   <si>
-    <t>Jean Pierre Samake</t>
-  </si>
-  <si>
-    <t>Luciana Laroche</t>
-  </si>
-  <si>
-    <t>Marielouise Lavert</t>
-  </si>
-  <si>
-    <t>Mathieu Clarck</t>
-  </si>
-  <si>
     <t>Kylie Palmer</t>
   </si>
   <si>
-    <t>Daniel Narcisse</t>
-  </si>
-  <si>
     <t>Kylian Delaroche</t>
   </si>
   <si>
     <t>AKA Team</t>
   </si>
   <si>
-    <t>Nicola Morel</t>
-  </si>
-  <si>
-    <t>Alex Tiers</t>
-  </si>
-  <si>
     <t>Jackson Adams</t>
   </si>
   <si>
-    <t>Alice Keller</t>
-  </si>
-  <si>
-    <t>Spanish Andres</t>
-  </si>
-  <si>
     <t>Andres Montenegro</t>
   </si>
   <si>
-    <t>Alex Kuznetsov</t>
-  </si>
-  <si>
     <t>Dario Torres</t>
   </si>
   <si>
@@ -1590,24 +1536,15 @@
     <t>Pedro Silva</t>
   </si>
   <si>
-    <t>Flavio De Nascimento</t>
-  </si>
-  <si>
     <t>Felizarda Costa</t>
   </si>
   <si>
-    <t>Portuguese Pedro</t>
-  </si>
-  <si>
     <t>SOPHIA MONTCLAIR</t>
   </si>
   <si>
     <t>MARILIA PIETERSON</t>
   </si>
   <si>
-    <t>vanessa maribel</t>
-  </si>
-  <si>
     <t>sachin singh</t>
   </si>
   <si>
@@ -1629,9 +1566,6 @@
     <t>Team Rahul</t>
   </si>
   <si>
-    <t>Misha Ambani</t>
-  </si>
-  <si>
     <t>Team Sameer</t>
   </si>
   <si>
@@ -1648,6 +1582,24 @@
   </si>
   <si>
     <t>Mason Brown's</t>
+  </si>
+  <si>
+    <t>Catalina Yepez</t>
+  </si>
+  <si>
+    <t>Yuna Kang</t>
+  </si>
+  <si>
+    <t>Marielouise Laver</t>
+  </si>
+  <si>
+    <t>Mathieu Clark</t>
+  </si>
+  <si>
+    <t>Ari Ko</t>
+  </si>
+  <si>
+    <t>Safraz Khan</t>
   </si>
 </sst>
 </file>
@@ -2879,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF2412F-3AE1-406B-A3F5-1F2FB96EA374}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2913,10 +2865,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D2" s="33">
         <v>0</v>
@@ -2927,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D3" s="33">
         <v>0</v>
@@ -2941,10 +2893,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D4" s="33">
         <v>0</v>
@@ -2955,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="D5" s="33">
         <v>0</v>
@@ -2969,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D6" s="33">
         <v>0</v>
@@ -2983,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D7" s="33">
         <v>0</v>
@@ -2998,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D8" s="33">
         <v>0</v>
@@ -3013,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D9" s="33">
         <v>0</v>
@@ -3028,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D10" s="33">
         <v>0</v>
@@ -3043,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="D11" s="33">
         <v>0</v>
@@ -3057,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D12" s="33">
         <v>0</v>
@@ -3071,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D13" s="33">
         <v>1</v>
@@ -3085,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D14" s="33">
         <v>0</v>
@@ -3099,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D15" s="33">
         <v>0</v>
@@ -3113,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D16" s="33">
         <v>0</v>
@@ -3127,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D17" s="33">
         <v>0</v>
@@ -3141,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>525</v>
+        <v>429</v>
       </c>
       <c r="D18" s="33">
         <v>0</v>
@@ -3155,13 +3107,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="D19" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3169,13 +3121,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>250</v>
+        <v>461</v>
       </c>
       <c r="D20" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3183,10 +3135,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D21" s="33">
         <v>0</v>
@@ -3197,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="D22" s="33">
         <v>0</v>
@@ -3211,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D23" s="33">
         <v>0</v>
@@ -3225,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="D24" s="33">
         <v>0</v>
@@ -3239,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="D25" s="33">
         <v>0</v>
@@ -3253,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="D26" s="33">
         <v>0</v>
@@ -3267,10 +3219,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D27" s="33">
         <v>0</v>
@@ -3281,13 +3233,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="D28" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3295,13 +3247,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="D29" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3309,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="D30" s="33">
         <v>0</v>
@@ -3323,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>523</v>
+        <v>435</v>
       </c>
       <c r="D31" s="33">
         <v>0</v>
@@ -3337,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D32" s="33">
         <v>0</v>
@@ -3351,13 +3303,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>440</v>
+        <v>132</v>
       </c>
       <c r="D33" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3365,13 +3317,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>132</v>
+        <v>473</v>
       </c>
       <c r="D34" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3379,10 +3331,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="D35" s="33">
         <v>0</v>
@@ -3393,10 +3345,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="D36" s="33">
         <v>0</v>
@@ -3407,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="D37" s="33">
         <v>0</v>
@@ -3421,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="D38" s="33">
         <v>0</v>
@@ -3435,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D39" s="33">
         <v>0</v>
@@ -3449,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="D40" s="33">
         <v>0</v>
@@ -3463,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="D41" s="33">
         <v>0</v>
@@ -3477,13 +3429,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D42" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3491,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D43" s="33">
         <v>0</v>
@@ -3505,13 +3457,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D44" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3519,10 +3471,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="D45" s="33">
         <v>0</v>
@@ -3533,10 +3485,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="D46" s="33">
         <v>0</v>
@@ -3547,10 +3499,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="D47" s="33">
         <v>0</v>
@@ -3561,10 +3513,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="D48" s="33">
         <v>0</v>
@@ -3575,10 +3527,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="D49" s="33">
         <v>0</v>
@@ -3589,13 +3541,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D50" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3603,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D51" s="33">
         <v>0</v>
@@ -3617,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="D52" s="33">
         <v>0</v>
@@ -3631,13 +3583,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="D53" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3645,10 +3597,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="D54" s="33">
         <v>0</v>
@@ -3659,10 +3611,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D55" s="33">
         <v>0</v>
@@ -3673,13 +3625,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D56" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3687,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="D57" s="33">
         <v>0</v>
@@ -3701,10 +3653,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="D58" s="33">
         <v>0</v>
@@ -3715,24 +3667,24 @@
         <v>1</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>448</v>
+        <v>519</v>
       </c>
       <c r="D59" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="D60" s="33">
         <v>0</v>
@@ -3740,16 +3692,16 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D61" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3757,10 +3709,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D62" s="33">
         <v>0</v>
@@ -3768,16 +3720,16 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>482</v>
       </c>
       <c r="D63" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3785,10 +3737,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="C64" s="33" t="s">
         <v>481</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>488</v>
       </c>
       <c r="D64" s="33">
         <v>0</v>
@@ -3799,10 +3751,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D65" s="33">
         <v>0</v>
@@ -3813,10 +3765,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="D66" s="33">
         <v>0</v>
@@ -3827,10 +3779,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D67" s="33">
         <v>0</v>
@@ -3841,10 +3793,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D68" s="33">
         <v>0</v>
@@ -3855,13 +3807,13 @@
         <v>2</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="D69" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3869,10 +3821,10 @@
         <v>2</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D70" s="33">
         <v>0</v>
@@ -3883,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D71" s="33">
         <v>0</v>
@@ -3897,13 +3849,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D72" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3911,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D73" s="33">
         <v>0</v>
@@ -3925,10 +3877,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D74" s="33">
         <v>0</v>
@@ -3939,10 +3891,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="D75" s="33">
         <v>0</v>
@@ -3953,10 +3905,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D76" s="33">
         <v>0</v>
@@ -3967,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>493</v>
@@ -3981,10 +3933,10 @@
         <v>2</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="D78" s="33">
         <v>0</v>
@@ -3995,10 +3947,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>230</v>
+        <v>521</v>
       </c>
       <c r="D79" s="33">
         <v>0</v>
@@ -4009,13 +3961,13 @@
         <v>2</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="D80" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4023,13 +3975,13 @@
         <v>2</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="D81" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4037,10 +3989,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>508</v>
+        <v>270</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D82" s="33">
         <v>0</v>
@@ -4051,13 +4003,13 @@
         <v>2</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>508</v>
+        <v>270</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="D83" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4065,13 +4017,13 @@
         <v>2</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>508</v>
+        <v>271</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D84" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4079,10 +4031,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="33" t="s">
         <v>499</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>506</v>
       </c>
       <c r="D85" s="33">
         <v>0</v>
@@ -4093,10 +4045,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>499</v>
+        <v>271</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D86" s="33">
         <v>0</v>
@@ -4107,10 +4059,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>499</v>
+        <v>271</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D87" s="33">
         <v>0</v>
@@ -4121,10 +4073,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>499</v>
+        <v>371</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D88" s="33">
         <v>0</v>
@@ -4135,10 +4087,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="D89" s="33">
         <v>0</v>
@@ -4149,10 +4101,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="D90" s="33">
         <v>0</v>
@@ -4160,189 +4112,21 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="D91" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="33">
-        <v>2</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="D92" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="33">
-        <v>2</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="D93" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="33">
-        <v>2</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="C94" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D94" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="33">
-        <v>2</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="D95" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="33">
-        <v>2</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="D96" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="33">
-        <v>2</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="C97" s="33" t="s">
-        <v>519</v>
-      </c>
-      <c r="D97" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="33">
-        <v>2</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="D98" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="33">
-        <v>2</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="D99" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="33">
-        <v>2</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="D100" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="33">
-        <v>2</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="D101" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="33">
-        <v>2</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="D102" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="33">
-        <v>2</v>
-      </c>
-      <c r="B103" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="D103" s="33">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D103">
-    <sortCondition ref="A1:A103"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
+    <sortCondition ref="A1:A89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/agents.xlsx
+++ b/agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus.forsen\Desktop\new project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DB7569-C11F-43E2-934D-44F8E900EBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22880CB-9F15-411A-86F2-4AE4402E9F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31875" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENT_LIST" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="AgentCode" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGENT_LIST!$B$1:$B$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGENT_LIST!$B$1:$B$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AgentCode!$A$1:$C$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="525">
   <si>
     <t>Anna Wolf</t>
   </si>
@@ -1473,9 +1473,6 @@
     <t>Siddh Vipal</t>
   </si>
   <si>
-    <t>Lara Mehta</t>
-  </si>
-  <si>
     <t>Ananya Sharma</t>
   </si>
   <si>
@@ -1488,9 +1485,6 @@
     <t>Ajay Kumar</t>
   </si>
   <si>
-    <t>Aahana Kapoor</t>
-  </si>
-  <si>
     <t>Jasprit Singh</t>
   </si>
   <si>
@@ -1600,6 +1594,15 @@
   </si>
   <si>
     <t>Safraz Khan</t>
+  </si>
+  <si>
+    <t>Aryan Khan</t>
+  </si>
+  <si>
+    <t>Luciana Laroche</t>
+  </si>
+  <si>
+    <t>Asha Tiwari</t>
   </si>
 </sst>
 </file>
@@ -2831,10 +2834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF2412F-3AE1-406B-A3F5-1F2FB96EA374}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2865,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>474</v>
@@ -2879,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>455</v>
@@ -2893,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>433</v>
@@ -2907,10 +2910,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D5" s="33">
         <v>0</v>
@@ -2921,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>458</v>
@@ -2935,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>457</v>
@@ -2950,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>431</v>
@@ -2965,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>470</v>
@@ -2980,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>452</v>
@@ -2995,10 +2998,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D11" s="33">
         <v>0</v>
@@ -3009,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>464</v>
@@ -3023,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>463</v>
@@ -3037,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>454</v>
@@ -3051,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>469</v>
@@ -3065,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>453</v>
@@ -3079,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>434</v>
@@ -3093,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>429</v>
@@ -3107,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>250</v>
@@ -3121,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>461</v>
@@ -3135,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>450</v>
@@ -3149,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>430</v>
@@ -3163,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>427</v>
@@ -3177,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>451</v>
@@ -3191,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>468</v>
@@ -3205,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>449</v>
@@ -3219,13 +3222,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="D27" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3233,13 +3236,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="D28" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3247,10 +3250,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="D29" s="33">
         <v>0</v>
@@ -3261,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="D30" s="33">
         <v>0</v>
@@ -3275,10 +3278,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D31" s="33">
         <v>0</v>
@@ -3289,13 +3292,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>439</v>
+        <v>132</v>
       </c>
       <c r="D32" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3303,13 +3306,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>132</v>
+        <v>473</v>
       </c>
       <c r="D33" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3320,7 +3323,7 @@
         <v>508</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="D34" s="33">
         <v>0</v>
@@ -3331,10 +3334,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="D35" s="33">
         <v>0</v>
@@ -3345,10 +3348,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D36" s="33">
         <v>0</v>
@@ -3359,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D37" s="33">
         <v>0</v>
@@ -3373,10 +3376,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="D38" s="33">
         <v>0</v>
@@ -3387,10 +3390,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D39" s="33">
         <v>0</v>
@@ -3401,10 +3404,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D40" s="33">
         <v>0</v>
@@ -3415,13 +3418,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D41" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3429,13 +3432,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D42" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3443,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D43" s="33">
         <v>0</v>
@@ -3457,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="D44" s="33">
         <v>0</v>
@@ -3471,10 +3474,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D45" s="33">
         <v>0</v>
@@ -3485,10 +3488,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="D46" s="33">
         <v>0</v>
@@ -3499,10 +3502,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D47" s="33">
         <v>0</v>
@@ -3513,10 +3516,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D48" s="33">
         <v>0</v>
@@ -3527,13 +3530,13 @@
         <v>1</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D49" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3541,13 +3544,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D50" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3555,10 +3558,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="D51" s="33">
         <v>0</v>
@@ -3569,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D52" s="33">
         <v>0</v>
@@ -3583,10 +3586,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D53" s="33">
         <v>0</v>
@@ -3597,10 +3600,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D54" s="33">
         <v>0</v>
@@ -3611,13 +3614,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D55" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3625,13 +3628,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="D56" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3639,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="D57" s="33">
         <v>0</v>
@@ -3653,10 +3656,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D58" s="33">
         <v>0</v>
@@ -3667,10 +3670,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="D59" s="33">
         <v>0</v>
@@ -3678,13 +3681,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="D60" s="33">
         <v>0</v>
@@ -3692,16 +3695,16 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="D61" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3709,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D62" s="33">
         <v>0</v>
@@ -3720,13 +3723,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D63" s="33">
         <v>0</v>
@@ -3740,10 +3743,10 @@
         <v>476</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D64" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3754,7 +3757,7 @@
         <v>476</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D65" s="33">
         <v>0</v>
@@ -3768,7 +3771,7 @@
         <v>476</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="D66" s="33">
         <v>0</v>
@@ -3779,10 +3782,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="D67" s="33">
         <v>0</v>
@@ -3793,10 +3796,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D68" s="33">
         <v>0</v>
@@ -3807,10 +3810,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C69" s="33" t="s">
         <v>484</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>485</v>
       </c>
       <c r="D69" s="33">
         <v>1</v>
@@ -3821,10 +3824,10 @@
         <v>2</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D70" s="33">
         <v>0</v>
@@ -3835,10 +3838,10 @@
         <v>2</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D71" s="33">
         <v>0</v>
@@ -3849,10 +3852,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D72" s="33">
         <v>0</v>
@@ -3863,10 +3866,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D73" s="33">
         <v>0</v>
@@ -3877,10 +3880,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D74" s="33">
         <v>0</v>
@@ -3891,10 +3894,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D75" s="33">
         <v>0</v>
@@ -3908,7 +3911,7 @@
         <v>371</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D76" s="33">
         <v>0</v>
@@ -3922,7 +3925,7 @@
         <v>371</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D77" s="33">
         <v>0</v>
@@ -3936,7 +3939,7 @@
         <v>371</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D78" s="33">
         <v>0</v>
@@ -3950,7 +3953,7 @@
         <v>371</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D79" s="33">
         <v>0</v>
@@ -3964,7 +3967,7 @@
         <v>371</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D80" s="33">
         <v>1</v>
@@ -3975,7 +3978,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>471</v>
@@ -3992,7 +3995,7 @@
         <v>270</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D82" s="33">
         <v>0</v>
@@ -4006,7 +4009,7 @@
         <v>270</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D83" s="33">
         <v>1</v>
@@ -4020,7 +4023,7 @@
         <v>271</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D84" s="33">
         <v>1</v>
@@ -4034,7 +4037,7 @@
         <v>271</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D85" s="33">
         <v>0</v>
@@ -4048,7 +4051,7 @@
         <v>271</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D86" s="33">
         <v>0</v>
@@ -4062,7 +4065,7 @@
         <v>271</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D87" s="33">
         <v>0</v>
@@ -4076,7 +4079,7 @@
         <v>371</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D88" s="33">
         <v>0</v>
@@ -4087,10 +4090,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D89" s="33">
         <v>0</v>
@@ -4104,7 +4107,7 @@
         <v>476</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D90" s="33">
         <v>0</v>
@@ -4112,21 +4115,49 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="D91" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="33">
+        <v>1</v>
+      </c>
+      <c r="B92" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="C91" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="D91" s="33">
+      <c r="C92" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D92" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="33">
+        <v>1</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="D93" s="33">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
-    <sortCondition ref="A1:A89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
+    <sortCondition ref="A1:A91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/agents.xlsx
+++ b/agents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus.forsen\Desktop\new project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22880CB-9F15-411A-86F2-4AE4402E9F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F34B3-90E3-4C3E-A04B-DF53840647C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="1860" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENT_LIST" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="AgentCode" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGENT_LIST!$B$1:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGENT_LIST!$B$1:$B$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AgentCode!$A$1:$C$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="506">
   <si>
     <t>Anna Wolf</t>
   </si>
@@ -1308,9 +1308,6 @@
     <t>AMY PETERSON</t>
   </si>
   <si>
-    <t>KEVIN LEBLOND</t>
-  </si>
-  <si>
     <t>OLIVER ZED</t>
   </si>
   <si>
@@ -1332,24 +1329,15 @@
     <t>RAFAELA PEREIRA</t>
   </si>
   <si>
-    <t>VERONICA DIAZ</t>
-  </si>
-  <si>
     <t>STELLA JEAN</t>
   </si>
   <si>
     <t>CHRIS PIERRE</t>
   </si>
   <si>
-    <t>KRITIKA SHARMA</t>
-  </si>
-  <si>
     <t>VIRAT CHAUDHRY</t>
   </si>
   <si>
-    <t>VALENTIN LAROCHE</t>
-  </si>
-  <si>
     <t>ELIJAH ANDERSON</t>
   </si>
   <si>
@@ -1368,75 +1356,39 @@
     <t>ROHAN KUMAR</t>
   </si>
   <si>
-    <t>RABEECA SHARMA</t>
-  </si>
-  <si>
     <t>VINCENT MORRIS</t>
   </si>
   <si>
     <t>MARC SAVANIER</t>
   </si>
   <si>
-    <t>BERTRAND POITIER</t>
-  </si>
-  <si>
     <t>JEAN LOUIS</t>
   </si>
   <si>
     <t>OLIVIA DUVAUD</t>
   </si>
   <si>
-    <t>FRANCISCO MENDEZ</t>
-  </si>
-  <si>
     <t>MERLY VASQUEZ</t>
   </si>
   <si>
-    <t>LAURA MARTINEZ</t>
-  </si>
-  <si>
     <t>PAULA AROUJO</t>
   </si>
   <si>
-    <t>AMAN GUPTA</t>
-  </si>
-  <si>
-    <t>DAVID NOHA</t>
-  </si>
-  <si>
-    <t>CAROLINA CASTILLO</t>
-  </si>
-  <si>
     <t>CEDRICK MANEAUX</t>
   </si>
   <si>
-    <t>BARKHA GUPTA</t>
-  </si>
-  <si>
     <t>JAYDEN MACHIAVEL</t>
   </si>
   <si>
-    <t>VIVAN KUMAR</t>
-  </si>
-  <si>
     <t>LARISA FRANCO</t>
   </si>
   <si>
-    <t>JOSE LOPEZ</t>
-  </si>
-  <si>
-    <t>SAMEER SINGH</t>
-  </si>
-  <si>
     <t>ARMAN SINGH</t>
   </si>
   <si>
     <t>ADEM ABROL</t>
   </si>
   <si>
-    <t>ALFRED NICOLAS</t>
-  </si>
-  <si>
     <t>MATILDE GUTIERREZ</t>
   </si>
   <si>
@@ -1446,9 +1398,6 @@
     <t>ALEX AKA</t>
   </si>
   <si>
-    <t>MAHI SHARMA</t>
-  </si>
-  <si>
     <t>ANDREA BERNARD</t>
   </si>
   <si>
@@ -1473,9 +1422,6 @@
     <t>Siddh Vipal</t>
   </si>
   <si>
-    <t>Ananya Sharma</t>
-  </si>
-  <si>
     <t>Ali Shah</t>
   </si>
   <si>
@@ -1500,12 +1446,6 @@
     <t>Kabir Khan</t>
   </si>
   <si>
-    <t>Maxime Hulot</t>
-  </si>
-  <si>
-    <t>Kylie Palmer</t>
-  </si>
-  <si>
     <t>Kylian Delaroche</t>
   </si>
   <si>
@@ -1527,24 +1467,12 @@
     <t>Daniel Suarez</t>
   </si>
   <si>
-    <t>Pedro Silva</t>
-  </si>
-  <si>
-    <t>Felizarda Costa</t>
-  </si>
-  <si>
-    <t>SOPHIA MONTCLAIR</t>
-  </si>
-  <si>
     <t>MARILIA PIETERSON</t>
   </si>
   <si>
     <t>sachin singh</t>
   </si>
   <si>
-    <t>nehal khan</t>
-  </si>
-  <si>
     <t>Team Vincent</t>
   </si>
   <si>
@@ -1557,52 +1485,67 @@
     <t>Team Eden</t>
   </si>
   <si>
+    <t>Team Larisa</t>
+  </si>
+  <si>
+    <t>Roland Davis</t>
+  </si>
+  <si>
+    <t>Sidhart Bhat</t>
+  </si>
+  <si>
+    <t>JAMES HERNANDEz</t>
+  </si>
+  <si>
+    <t>Mason Brown's</t>
+  </si>
+  <si>
+    <t>Catalina Yepez</t>
+  </si>
+  <si>
+    <t>Yuna Kang</t>
+  </si>
+  <si>
+    <t>Marielouise Laver</t>
+  </si>
+  <si>
+    <t>Mathieu Clark</t>
+  </si>
+  <si>
+    <t>Ari Ko</t>
+  </si>
+  <si>
+    <t>Safraz Khan</t>
+  </si>
+  <si>
+    <t>Luciana Laroche</t>
+  </si>
+  <si>
+    <t>Asha Tiwari</t>
+  </si>
+  <si>
+    <t>Vivan Kumar</t>
+  </si>
+  <si>
+    <t>Marcos Aguilar</t>
+  </si>
+  <si>
+    <t>Shane Ruben</t>
+  </si>
+  <si>
     <t>Team Rahul</t>
   </si>
   <si>
-    <t>Team Sameer</t>
-  </si>
-  <si>
-    <t>Team Larisa</t>
-  </si>
-  <si>
-    <t>Roland Davis</t>
-  </si>
-  <si>
-    <t>Sidhart Bhat</t>
-  </si>
-  <si>
-    <t>JAMES HERNANDEz</t>
-  </si>
-  <si>
-    <t>Mason Brown's</t>
-  </si>
-  <si>
-    <t>Catalina Yepez</t>
-  </si>
-  <si>
-    <t>Yuna Kang</t>
-  </si>
-  <si>
-    <t>Marielouise Laver</t>
-  </si>
-  <si>
-    <t>Mathieu Clark</t>
-  </si>
-  <si>
-    <t>Ari Ko</t>
-  </si>
-  <si>
-    <t>Safraz Khan</t>
-  </si>
-  <si>
-    <t>Aryan Khan</t>
-  </si>
-  <si>
-    <t>Luciana Laroche</t>
-  </si>
-  <si>
-    <t>Asha Tiwari</t>
+    <t>Lara Ramirez</t>
+  </si>
+  <si>
+    <t>Kashish Kapoor</t>
+  </si>
+  <si>
+    <t>Anil Kumar</t>
+  </si>
+  <si>
+    <t>Akash Bhatia</t>
   </si>
 </sst>
 </file>
@@ -2834,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF2412F-3AE1-406B-A3F5-1F2FB96EA374}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2865,13 +2808,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D2" s="33">
         <v>0</v>
@@ -2879,27 +2822,27 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D3" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="D4" s="33">
         <v>0</v>
@@ -2907,13 +2850,13 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="D5" s="33">
         <v>0</v>
@@ -2921,27 +2864,28 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="D6" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="D7" s="33">
         <v>0</v>
@@ -2950,72 +2894,69 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="D8" s="33">
         <v>0</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D9" s="33">
-        <v>0</v>
-      </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="D10" s="33">
         <v>0</v>
       </c>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="D11" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6">
       <c r="A12" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D12" s="33">
         <v>0</v>
@@ -3023,27 +2964,27 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D13" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D14" s="33">
         <v>0</v>
@@ -3051,13 +2992,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D15" s="33">
         <v>0</v>
@@ -3065,13 +3006,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="D16" s="33">
         <v>0</v>
@@ -3079,27 +3020,27 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="D17" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="D18" s="33">
         <v>0</v>
@@ -3107,27 +3048,27 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>250</v>
+        <v>496</v>
       </c>
       <c r="D19" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="D20" s="33">
         <v>0</v>
@@ -3135,13 +3076,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="D21" s="33">
         <v>0</v>
@@ -3149,13 +3090,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="D22" s="33">
         <v>0</v>
@@ -3163,13 +3104,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="D23" s="33">
         <v>0</v>
@@ -3177,27 +3118,27 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>508</v>
+        <v>271</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="D24" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>507</v>
+        <v>271</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D25" s="33">
         <v>0</v>
@@ -3205,13 +3146,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>507</v>
+        <v>271</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="D26" s="33">
         <v>0</v>
@@ -3219,16 +3160,16 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>507</v>
+        <v>271</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="D27" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3236,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D28" s="33">
         <v>0</v>
@@ -3250,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="D29" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3264,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="D30" s="33">
         <v>0</v>
@@ -3278,10 +3219,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D31" s="33">
         <v>0</v>
@@ -3292,13 +3233,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="D32" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3306,10 +3247,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="D33" s="33">
         <v>0</v>
@@ -3320,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="D34" s="33">
         <v>0</v>
@@ -3334,13 +3275,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="D35" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3348,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D36" s="33">
         <v>0</v>
@@ -3362,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="D37" s="33">
         <v>0</v>
@@ -3376,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>432</v>
+        <v>230</v>
       </c>
       <c r="D38" s="33">
         <v>0</v>
@@ -3390,10 +3331,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="D39" s="33">
         <v>0</v>
@@ -3404,10 +3345,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D40" s="33">
         <v>0</v>
@@ -3418,13 +3359,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D41" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3432,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="D42" s="33">
         <v>0</v>
@@ -3446,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D43" s="33">
         <v>0</v>
@@ -3460,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="D44" s="33">
         <v>0</v>
@@ -3474,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="D45" s="33">
         <v>0</v>
@@ -3488,13 +3429,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="D46" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3502,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="D47" s="33">
         <v>0</v>
@@ -3516,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="D48" s="33">
         <v>0</v>
@@ -3530,13 +3471,13 @@
         <v>1</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="D49" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3544,13 +3485,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>462</v>
+        <v>132</v>
       </c>
       <c r="D50" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3558,10 +3499,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="D51" s="33">
         <v>0</v>
@@ -3572,10 +3513,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D52" s="33">
         <v>0</v>
@@ -3586,13 +3527,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D53" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3600,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D54" s="33">
         <v>0</v>
@@ -3614,13 +3555,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D55" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3628,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D56" s="33">
         <v>0</v>
@@ -3642,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>516</v>
+        <v>452</v>
       </c>
       <c r="D57" s="33">
         <v>0</v>
@@ -3656,10 +3597,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="D58" s="33">
         <v>0</v>
@@ -3670,10 +3611,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="D59" s="33">
         <v>0</v>
@@ -3684,10 +3625,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="D60" s="33">
         <v>0</v>
@@ -3698,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="D61" s="33">
         <v>0</v>
@@ -3709,13 +3650,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D62" s="33">
         <v>0</v>
@@ -3723,13 +3664,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="D63" s="33">
         <v>0</v>
@@ -3737,27 +3678,27 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="D64" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="D65" s="33">
         <v>0</v>
@@ -3765,13 +3706,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="D66" s="33">
         <v>0</v>
@@ -3779,27 +3720,27 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>513</v>
+        <v>442</v>
       </c>
       <c r="D67" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D68" s="33">
         <v>0</v>
@@ -3807,27 +3748,27 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="D69" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D70" s="33">
         <v>0</v>
@@ -3838,10 +3779,10 @@
         <v>2</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="D71" s="33">
         <v>0</v>
@@ -3852,10 +3793,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>483</v>
+        <v>271</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="D72" s="33">
         <v>0</v>
@@ -3866,10 +3807,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D73" s="33">
         <v>0</v>
@@ -3877,13 +3818,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D74" s="33">
         <v>0</v>
@@ -3891,273 +3832,21 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D75" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="33">
-        <v>2</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="D76" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="33">
-        <v>2</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="D77" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="33">
-        <v>2</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="D78" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="33">
-        <v>2</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>519</v>
-      </c>
-      <c r="D79" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="33">
-        <v>2</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="D80" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="33">
-        <v>2</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D81" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="33">
-        <v>2</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="D82" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="33">
-        <v>2</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="D83" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="33">
-        <v>2</v>
-      </c>
-      <c r="B84" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="D84" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="33">
-        <v>2</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="D85" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="33">
-        <v>2</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="D86" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="33">
-        <v>2</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="D87" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="33">
-        <v>2</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="D88" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="33">
-        <v>2</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="D89" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="33">
-        <v>2</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="D90" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="33">
-        <v>2</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="D91" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="33">
-        <v>1</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>507</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="D92" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="33">
-        <v>1</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="D93" s="33">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
-    <sortCondition ref="A1:A91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D69">
+    <sortCondition ref="B1:B69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/agents.xlsx
+++ b/agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus.forsen\Desktop\new project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F34B3-90E3-4C3E-A04B-DF53840647C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3EC4BF-9AB8-4222-93B2-57DF1600404B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1860" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31845" yWindow="1350" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENT_LIST" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="514">
   <si>
     <t>Anna Wolf</t>
   </si>
@@ -1539,13 +1539,37 @@
     <t>Lara Ramirez</t>
   </si>
   <si>
-    <t>Kashish Kapoor</t>
-  </si>
-  <si>
     <t>Anil Kumar</t>
   </si>
   <si>
     <t>Akash Bhatia</t>
+  </si>
+  <si>
+    <t>Richard Renard</t>
+  </si>
+  <si>
+    <t>Aahana Kapoor</t>
+  </si>
+  <si>
+    <t>Carolina Castillo</t>
+  </si>
+  <si>
+    <t>Veronica Diaz</t>
+  </si>
+  <si>
+    <t>Zack Duboit</t>
+  </si>
+  <si>
+    <t>Camille Carpentier</t>
+  </si>
+  <si>
+    <t>Aihan Chopra</t>
+  </si>
+  <si>
+    <t>Lukesh Kumar</t>
+  </si>
+  <si>
+    <t>Inaya Sharma</t>
   </si>
 </sst>
 </file>
@@ -2372,33 +2396,33 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2777,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF2412F-3AE1-406B-A3F5-1F2FB96EA374}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3804,10 +3828,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>503</v>
@@ -3835,12 +3859,124 @@
         <v>1</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>505</v>
       </c>
       <c r="D75" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="33">
+        <v>2</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="D76" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="33">
+        <v>1</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="D77" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="33">
+        <v>1</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="D78" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="33">
+        <v>1</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="D79" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="33">
+        <v>1</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="D80" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="33">
+        <v>1</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="D81" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="33">
+        <v>1</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="D82" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="33">
+        <v>1</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="D83" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4011,7 +4147,7 @@
       <c r="H1" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="43" t="s">
         <v>322</v>
       </c>
       <c r="J1" s="36"/>
@@ -4044,7 +4180,7 @@
       <c r="H2" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="40" t="s">
         <v>324</v>
       </c>
       <c r="J2" s="36"/>
@@ -4077,7 +4213,7 @@
       <c r="H3" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="44" t="s">
         <v>326</v>
       </c>
       <c r="J3" s="36"/>
@@ -4110,7 +4246,7 @@
       <c r="H4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="45" t="s">
         <v>327</v>
       </c>
       <c r="J4" s="36"/>
@@ -4143,7 +4279,7 @@
       <c r="H5" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="41" t="s">
         <v>329</v>
       </c>
       <c r="J5" s="36"/>
@@ -4176,7 +4312,7 @@
       <c r="H6" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="41" t="s">
         <v>331</v>
       </c>
       <c r="J6" s="36"/>
@@ -4209,7 +4345,7 @@
       <c r="H7" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="41" t="s">
         <v>332</v>
       </c>
       <c r="J7" s="36"/>
@@ -4242,7 +4378,7 @@
       <c r="H8" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="41" t="s">
         <v>333</v>
       </c>
       <c r="J8" s="36"/>
@@ -4275,7 +4411,7 @@
       <c r="H9" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="41" t="s">
         <v>334</v>
       </c>
       <c r="J9" s="36"/>
@@ -4308,7 +4444,7 @@
       <c r="H10" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="41" t="s">
         <v>335</v>
       </c>
       <c r="J10" s="36"/>
@@ -4341,7 +4477,7 @@
       <c r="H11" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="41" t="s">
         <v>336</v>
       </c>
       <c r="J11" s="36"/>
@@ -4374,7 +4510,7 @@
       <c r="H12" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="41" t="s">
         <v>337</v>
       </c>
       <c r="J12" s="36"/>
@@ -4407,7 +4543,7 @@
       <c r="H13" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="41" t="s">
         <v>338</v>
       </c>
       <c r="J13" s="36"/>
@@ -4440,7 +4576,7 @@
       <c r="H14" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="40" t="s">
         <v>340</v>
       </c>
       <c r="J14" s="36"/>
@@ -4473,7 +4609,7 @@
       <c r="H15" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="40" t="s">
         <v>342</v>
       </c>
       <c r="J15" s="36"/>
@@ -4506,7 +4642,7 @@
       <c r="H16" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="40" t="s">
         <v>343</v>
       </c>
       <c r="J16" s="36"/>
@@ -4539,7 +4675,7 @@
       <c r="H17" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="40" t="s">
         <v>344</v>
       </c>
       <c r="J17" s="36"/>
@@ -4572,7 +4708,7 @@
       <c r="H18" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="40" t="s">
         <v>345</v>
       </c>
       <c r="J18" s="36"/>
@@ -4605,7 +4741,7 @@
       <c r="H19" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="40" t="s">
         <v>346</v>
       </c>
       <c r="J19" s="36"/>
@@ -4638,7 +4774,7 @@
       <c r="H20" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="40" t="s">
         <v>347</v>
       </c>
       <c r="J20" s="36"/>
@@ -4671,7 +4807,7 @@
       <c r="H21" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="40" t="s">
         <v>348</v>
       </c>
       <c r="J21" s="36"/>
@@ -4704,7 +4840,7 @@
       <c r="H22" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="42" t="s">
         <v>350</v>
       </c>
       <c r="J22" s="36"/>
@@ -4737,7 +4873,7 @@
       <c r="H23" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="40" t="s">
         <v>351</v>
       </c>
       <c r="J23" s="36"/>
@@ -4770,7 +4906,7 @@
       <c r="H24" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="40" t="s">
         <v>352</v>
       </c>
       <c r="J24" s="36"/>
@@ -4803,7 +4939,7 @@
       <c r="H25" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="39" t="s">
         <v>353</v>
       </c>
       <c r="J25" s="36"/>
@@ -4836,7 +4972,7 @@
       <c r="H26" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="39" t="s">
         <v>354</v>
       </c>
       <c r="J26" s="36"/>
@@ -4869,7 +5005,7 @@
       <c r="H27" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="39" t="s">
         <v>356</v>
       </c>
       <c r="J27" s="36"/>
@@ -4902,7 +5038,7 @@
       <c r="H28" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="39" t="s">
         <v>357</v>
       </c>
       <c r="J28" s="36"/>
@@ -4935,7 +5071,7 @@
       <c r="H29" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="39" t="s">
         <v>358</v>
       </c>
       <c r="J29" s="36"/>
@@ -4968,7 +5104,7 @@
       <c r="H30" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="I30" s="42" t="s">
+      <c r="I30" s="35" t="s">
         <v>360</v>
       </c>
       <c r="J30" s="36"/>
@@ -5001,7 +5137,7 @@
       <c r="H31" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="35" t="s">
         <v>361</v>
       </c>
       <c r="J31" s="36"/>
@@ -5034,10 +5170,10 @@
       <c r="H32" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="J32" s="44"/>
+      <c r="J32" s="38"/>
       <c r="K32">
         <v>1</v>
       </c>
@@ -6387,14 +6523,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
@@ -6407,18 +6547,14 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <conditionalFormatting sqref="H38:I41 H43:I45 I57:I64 H57:H67 G63:G67">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/agents.xlsx
+++ b/agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus.forsen\Desktop\new project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3EC4BF-9AB8-4222-93B2-57DF1600404B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5F0AE-E70D-4356-838F-B49C66DF97ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="1350" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENT_LIST" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="510">
   <si>
     <t>Anna Wolf</t>
   </si>
@@ -1555,18 +1555,6 @@
   </si>
   <si>
     <t>Veronica Diaz</t>
-  </si>
-  <si>
-    <t>Zack Duboit</t>
-  </si>
-  <si>
-    <t>Camille Carpentier</t>
-  </si>
-  <si>
-    <t>Aihan Chopra</t>
-  </si>
-  <si>
-    <t>Lukesh Kumar</t>
   </si>
   <si>
     <t>Inaya Sharma</t>
@@ -2396,33 +2384,33 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2801,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF2412F-3AE1-406B-A3F5-1F2FB96EA374}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3915,68 +3903,12 @@
         <v>1</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>509</v>
       </c>
       <c r="D79" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="33">
-        <v>1</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="D80" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="33">
-        <v>1</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="D81" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="33">
-        <v>1</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="D82" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="33">
-        <v>1</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="D83" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4147,7 +4079,7 @@
       <c r="H1" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="37" t="s">
         <v>322</v>
       </c>
       <c r="J1" s="36"/>
@@ -4180,7 +4112,7 @@
       <c r="H2" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="38" t="s">
         <v>324</v>
       </c>
       <c r="J2" s="36"/>
@@ -4213,7 +4145,7 @@
       <c r="H3" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="39" t="s">
         <v>326</v>
       </c>
       <c r="J3" s="36"/>
@@ -4246,7 +4178,7 @@
       <c r="H4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="40" t="s">
         <v>327</v>
       </c>
       <c r="J4" s="36"/>
@@ -4279,7 +4211,7 @@
       <c r="H5" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="35" t="s">
         <v>329</v>
       </c>
       <c r="J5" s="36"/>
@@ -4312,7 +4244,7 @@
       <c r="H6" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="35" t="s">
         <v>331</v>
       </c>
       <c r="J6" s="36"/>
@@ -4345,7 +4277,7 @@
       <c r="H7" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="35" t="s">
         <v>332</v>
       </c>
       <c r="J7" s="36"/>
@@ -4378,7 +4310,7 @@
       <c r="H8" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="35" t="s">
         <v>333</v>
       </c>
       <c r="J8" s="36"/>
@@ -4411,7 +4343,7 @@
       <c r="H9" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="35" t="s">
         <v>334</v>
       </c>
       <c r="J9" s="36"/>
@@ -4444,7 +4376,7 @@
       <c r="H10" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="35" t="s">
         <v>335</v>
       </c>
       <c r="J10" s="36"/>
@@ -4477,7 +4409,7 @@
       <c r="H11" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="35" t="s">
         <v>336</v>
       </c>
       <c r="J11" s="36"/>
@@ -4510,7 +4442,7 @@
       <c r="H12" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="35" t="s">
         <v>337</v>
       </c>
       <c r="J12" s="36"/>
@@ -4543,7 +4475,7 @@
       <c r="H13" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="35" t="s">
         <v>338</v>
       </c>
       <c r="J13" s="36"/>
@@ -4576,7 +4508,7 @@
       <c r="H14" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="38" t="s">
         <v>340</v>
       </c>
       <c r="J14" s="36"/>
@@ -4609,7 +4541,7 @@
       <c r="H15" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="38" t="s">
         <v>342</v>
       </c>
       <c r="J15" s="36"/>
@@ -4642,7 +4574,7 @@
       <c r="H16" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="38" t="s">
         <v>343</v>
       </c>
       <c r="J16" s="36"/>
@@ -4675,7 +4607,7 @@
       <c r="H17" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="38" t="s">
         <v>344</v>
       </c>
       <c r="J17" s="36"/>
@@ -4708,7 +4640,7 @@
       <c r="H18" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="38" t="s">
         <v>345</v>
       </c>
       <c r="J18" s="36"/>
@@ -4741,7 +4673,7 @@
       <c r="H19" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="38" t="s">
         <v>346</v>
       </c>
       <c r="J19" s="36"/>
@@ -4774,7 +4706,7 @@
       <c r="H20" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="38" t="s">
         <v>347</v>
       </c>
       <c r="J20" s="36"/>
@@ -4807,7 +4739,7 @@
       <c r="H21" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="38" t="s">
         <v>348</v>
       </c>
       <c r="J21" s="36"/>
@@ -4840,7 +4772,7 @@
       <c r="H22" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="41" t="s">
         <v>350</v>
       </c>
       <c r="J22" s="36"/>
@@ -4873,7 +4805,7 @@
       <c r="H23" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="38" t="s">
         <v>351</v>
       </c>
       <c r="J23" s="36"/>
@@ -4906,7 +4838,7 @@
       <c r="H24" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="38" t="s">
         <v>352</v>
       </c>
       <c r="J24" s="36"/>
@@ -4939,7 +4871,7 @@
       <c r="H25" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="45" t="s">
         <v>353</v>
       </c>
       <c r="J25" s="36"/>
@@ -4972,7 +4904,7 @@
       <c r="H26" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="45" t="s">
         <v>354</v>
       </c>
       <c r="J26" s="36"/>
@@ -5005,7 +4937,7 @@
       <c r="H27" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="45" t="s">
         <v>356</v>
       </c>
       <c r="J27" s="36"/>
@@ -5038,7 +4970,7 @@
       <c r="H28" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="45" t="s">
         <v>357</v>
       </c>
       <c r="J28" s="36"/>
@@ -5071,7 +5003,7 @@
       <c r="H29" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="45" t="s">
         <v>358</v>
       </c>
       <c r="J29" s="36"/>
@@ -5104,7 +5036,7 @@
       <c r="H30" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="42" t="s">
         <v>360</v>
       </c>
       <c r="J30" s="36"/>
@@ -5137,7 +5069,7 @@
       <c r="H31" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="42" t="s">
         <v>361</v>
       </c>
       <c r="J31" s="36"/>
@@ -5170,10 +5102,10 @@
       <c r="H32" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="J32" s="38"/>
+      <c r="J32" s="44"/>
       <c r="K32">
         <v>1</v>
       </c>
@@ -6523,6 +6455,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
@@ -6535,26 +6487,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <conditionalFormatting sqref="H38:I41 H43:I45 I57:I64 H57:H67 G63:G67">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
